--- a/MainTop/25.12.2025 Ozon Таня/объединенный_отчет_с_местом_updated.xlsx
+++ b/MainTop/25.12.2025 Ozon Таня/объединенный_отчет_с_местом_updated.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\25.12.2025 Ozon Таня\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\25.12.2025 Ozon Таня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AA7696-8055-4C37-98DC-BBCD33D235F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630658AA-9293-4D6F-9CB6-E9F673067138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="241">
   <si>
     <t>артикул</t>
   </si>
@@ -737,6 +748,12 @@
   </si>
   <si>
     <t>25.12.2025 Ozon Таня</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>б</t>
   </si>
 </sst>
 </file>
@@ -1169,19 +1186,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="6" customWidth="1"/>
     <col min="3" max="12" width="5" customWidth="1"/>
     <col min="13" max="13" width="5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="32.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5889,8 +5906,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f>SUM(C2:C114)</f>
+        <v>165</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ref="D115:M115" si="0">SUM(D2:D114)</f>
+        <v>110</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="0"/>
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>